--- a/sample.xlsx
+++ b/sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>devops</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Azure</t>
   </si>
 </sst>
 </file>
@@ -362,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -390,6 +396,17 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Azure</t>
+  </si>
+  <si>
+    <t>phani</t>
+  </si>
+  <si>
+    <t>consulting</t>
   </si>
 </sst>
 </file>
@@ -368,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,6 +413,17 @@
       </c>
       <c r="C3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>consulting</t>
+  </si>
+  <si>
+    <t>keerthi</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,6 +430,17 @@
       </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>kubernetes</t>
+  </si>
+  <si>
+    <t>surya</t>
+  </si>
+  <si>
+    <t>azuredevops</t>
   </si>
 </sst>
 </file>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -441,6 +447,17 @@
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>azuredevops</t>
+  </si>
+  <si>
+    <t>sddsghweh</t>
+  </si>
+  <si>
+    <t>dsdsds</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,6 +464,16 @@
       </c>
       <c r="C6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
